--- a/excel/account-x-multi.xlsx
+++ b/excel/account-x-multi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="2310" windowWidth="20295" windowHeight="7095"/>
+    <workbookView xWindow="225" yWindow="2310" windowWidth="20295" windowHeight="7095" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="S1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>取引先</t>
     <rPh sb="0" eb="2">
@@ -67,6 +67,21 @@
   <si>
     <t>Web サイト</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>列3</t>
+  </si>
+  <si>
+    <t>列4</t>
+  </si>
+  <si>
+    <t>列5</t>
   </si>
 </sst>
 </file>
@@ -210,6 +225,45 @@
     <tableColumn id="8" uniqueName="Website" name="Web サイト">
       <xmlColumnPr mapId="1" xpath="/root/element/Website" xmlDataType="string"/>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B1:F6" totalsRowShown="0">
+  <autoFilter ref="B1:F6"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="列1"/>
+    <tableColumn id="2" name="列2"/>
+    <tableColumn id="3" name="列3"/>
+    <tableColumn id="4" name="列4"/>
+    <tableColumn id="5" name="列5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル4" displayName="テーブル4" ref="B5:E12" totalsRowShown="0">
+  <autoFilter ref="B5:E12"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="列1"/>
+    <tableColumn id="2" name="列2"/>
+    <tableColumn id="3" name="列3"/>
+    <tableColumn id="4" name="列4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル3" displayName="テーブル3" ref="G5:I8" totalsRowShown="0">
+  <autoFilter ref="G5:I8"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="列1"/>
+    <tableColumn id="2" name="列2"/>
+    <tableColumn id="3" name="列3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -502,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -567,32 +621,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <customProperties>
-    <customPr name="%startcell%" r:id="rId1"/>
+    <customPr name="%startcell%" r:id="rId2"/>
   </customProperties>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B5:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="2:9">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <customProperties>
-    <customPr name="%startcell%" r:id="rId1"/>
+    <customPr name="%startcell%" r:id="rId2"/>
   </customProperties>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>